--- a/Android/BTC_blockchain_API.xlsx
+++ b/Android/BTC_blockchain_API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>BaseUrl : https://blockchain.info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,12 +1197,159 @@
     <t>/unspent?active=$address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>发送交易前进行数据签章</t>
+    <rPh sb="0" eb="1">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qian zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  String txHash=null;//用来存储会生成的签名hash值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+   //You must construct a Context object before using BitCoin j!
+   Context.getOrCreate(BTCParamsConstants.NetworkParameter);
+        //声明一个地址
+        Address addressToSend = null;
+        try {
+            //将当前传入的地址转化成特定的地址格式
+            addressToSend = Address.fromBase58(BTCParamsConstants.NetworkParameter, toAddress);
+        } catch (AddressFormatException a) {
+      }
+      //因为BTC内部的单位是「聪」10^8,所以，这里需要对刚传入的金额和利息参数进行换算
+        BigDecimal amount = new BigDecimal(amountString).multiply(new BigDecimal(BTCParamsConstants.BtcUnit));
+        BigDecimal fee;
+        //判断当前用户是否给予手续费，否则采用本APP默认的手续费规则
+        if (feeString == "" || feeString == null) {
+            fee = new BigDecimal("0.005").multiply(new BigDecimal(BTCParamsConstants.BtcUnit));
+        } else {
+            fee = new BigDecimal(feeString).multiply(new BigDecimal(BTCParamsConstants.BtcUnit));
+        }
+        //判断当前单位换算过的fee是否满足要求，否则也按照给定的规则计算手续费
+        if (fee.doubleValue() &lt;= 0) {
+            fee = new BigDecimal("0.005").multiply(new BigDecimal(BTCParamsConstants.BtcUnit));
+        }
+        //声明一个变量用于得到待会取出UTXO需要用来支付的的「输入」
+        BigDecimal walletBtc = new BigDecimal("0.0");
+        //获取当前设定环境下的Transaction实例
+        Transaction transaction = new Transaction(BTCParamsConstants.NetworkParameter);
+        //添加「输出」的金额以及地址信息
+        transaction.addOutput(Coin.valueOf((amount.longValue())), addressToSend);
+        //将当前交易的金额+手续费
+        amount = amount.add(fee);
+        //重新声明一个UTXO数组
+        List&lt;BtcUtxo&gt; btcUnspentOutputList = new ArrayList&lt;&gt;();
+        //遍历UTXO，得到当前地址的所有UTXO事务
+        for (int i = 0; i &lt; btcUtxoList.size(); i++) {
+            BtcUtxo unspentOutput = btcUtxoList.get(i);
+            //添加当前的UTXO里面的value
+            walletBtc = walletBtc.add(new BigDecimal(unspentOutput.getValue()));
+            //将当前数据新添加入新定义的UTXO数组里面
+            btcUnspentOutputList.add(unspentOutput);
+//            //比较当前账户的btc是否大于等于这次需要push的金额
+            if (walletBtc.doubleValue() &gt;= amount.doubleValue()) {
+                break;
+            }
+        }
+        //比较当前账户的balance的double值是否大于这次需要push的金额double值
+        if (walletBtc.doubleValue() &lt; amount.doubleValue()) {
+            view.failure("insufficient_transaction");
+            return;
+        }
+        //得到这次传送之后剩下的btc
+        BigDecimal goBackBtc = walletBtc.subtract(amount);
+        // 根据私鑰WIF字串轉ECKey
+        ECKey privateKey = DumpedPrivateKey.fromBase58(BTCParamsConstants.NetworkParameter, Constants.privateWIFKey).getKey();
+        //判断当前剩下的btc不为0
+        if (goBackBtc.doubleValue() != 0.0) {
+            //添加「找零」的金额和地址
+            transaction.addOutput(Coin.valueOf((goBackBtc.longValue())), privateKey.toAddress(BTCParamsConstants.NetworkParameter));
+        }
+        //对重新组装的UTXO进行遍历,进行交易签章
+        for (BtcUtxo unspentOutput : btcUnspentOutputList) {
+            if (unspentOutput.getValue() != 0.0) {
+                // 获取交易输入TXId对应的交易数据
+                Sha256Hash sha256Hash = new Sha256Hash(Utils.parseAsHexOrBase58(unspentOutput.getTx_hash_big_endian()));
+                // 获取交易输入所对应的上一笔交易中的交易输出
+                TransactionOutPoint outPoint = new TransactionOutPoint(BTCParamsConstants.NetworkParameter,
+                        unspentOutput.getTx_output_n(), sha256Hash);
+                //获取当前script进行格式解析
+                Script script = new Script(Utils.parseAsHexOrBase58(unspentOutput.getScript()));
+                //添加「交易」信息
+                transaction.addSignedInput(outPoint, script, privateKey, Transaction.SigHash.ALL, true);
+            }
+        }
+        transaction.getConfidence().setSource(TransactionConfidence.Source.SELF);
+        transaction.setPurpose(Transaction.Purpose.USER_PAYMENT);
+        byte[] bytes = transaction.unsafeBitcoinSerialize();
+        txHash = Hex.toHexString(bytes);</t>
+    </r>
+    <rPh sb="27" eb="28">
+      <t>yong lai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>cun c</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>sheng cheng</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>de</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qian ming</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1283,6 +1430,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1316,7 +1471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1376,21 +1531,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1398,12 +1559,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1414,6 +1569,42 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1427,48 +1618,38 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1748,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E32"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1760,39 +1941,39 @@
     <col min="2" max="2" width="41" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="60.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="157.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="66.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="201.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="120.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1815,290 +1996,328 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="187" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="314" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="22" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B15" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="13" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F15" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="22" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F19" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="18"/>
-    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:E13"/>
     <mergeCell ref="A1:G3"/>
-    <mergeCell ref="E15:E32"/>
-    <mergeCell ref="D15:D32"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="B15:B32"/>
-    <mergeCell ref="C15:C32"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F15:F32"/>
+    <mergeCell ref="E19:E36"/>
+    <mergeCell ref="D19:D36"/>
+    <mergeCell ref="A19:A36"/>
+    <mergeCell ref="B19:B36"/>
+    <mergeCell ref="C19:C36"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="F19:F36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/BTC_blockchain_API.xlsx
+++ b/Android/BTC_blockchain_API.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1220,30 +1220,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  String txHash=null;//用来存储会生成的签名hash值</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文楷体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">      String txHashRaw=null;//用来存储会生成的签名的RAW值
    //You must construct a Context object before using BitCoin j!
    Context.getOrCreate(BTCParamsConstants.NetworkParameter);
         //声明一个地址
@@ -1319,29 +1296,10 @@
         transaction.getConfidence().setSource(TransactionConfidence.Source.SELF);
         transaction.setPurpose(Transaction.Purpose.USER_PAYMENT);
         byte[] bytes = transaction.unsafeBitcoinSerialize();
-        txHash = Hex.toHexString(bytes);</t>
-    </r>
-    <rPh sb="27" eb="28">
-      <t>yong lai</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>cun c</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>sheng cheng</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>de</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>qian ming</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>zhi</t>
-    </rPh>
+        //得到txHashRaw值，用于pushTX
+        txHashRaw = Hex.toHexString(bytes);
+       //当前的txHash值
+       String txHash=transactionHash = transaction.getHashAsString();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,7 +1307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1426,14 +1384,6 @@
       <b/>
       <sz val="14"/>
       <color theme="4"/>
-      <name val="华文楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFC00000"/>
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1541,8 +1491,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1590,6 +1542,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1633,28 +1602,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1931,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1947,33 +1901,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -2044,47 +1998,47 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="22" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
@@ -2106,38 +2060,38 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="24"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="25"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -2148,158 +2102,158 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="30"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="30"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="37"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="30"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="15">
